--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_158.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_158.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,187 +488,195 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.34, 33.52)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:00:00.860000', '0:00:25.020000'), ('0:01:01.240000', '0:01:24.100000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1), (83.1, 90.02)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(1.64, 6.7)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[('0:00:02.860000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,13 +684,13 @@
           <t>schubert-winterreise_111</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -686,519 +699,481 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.7, 109.5)]</t>
+          <t>[('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(14.9, 56.28)]</t>
+          <t>[('0:00:07.100000', '0:00:18.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:10.060000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:39.800000', '0:00:45.400000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07542372881355933</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'B'], ['D', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['F', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(35.080113, 43.578616), (26.43068, 30.749591)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.236303, 12.162018), (8.342335, 11.17517)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
